--- a/Data/EC/NIT-9011037901.xlsx
+++ b/Data/EC/NIT-9011037901.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C8DE9B-AE02-4832-ACCD-3CDDD8B9734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB6A0EC-B743-4383-BEA2-5C82D2713846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30CF9A41-6A21-42FE-8CB3-9F4845DBAE52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7741440B-82D9-4AC7-A9E0-2BCC382C3036}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,12 +65,117 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33354163</t>
+  </si>
+  <si>
+    <t>YURIS MARIA LOZANO RODELO</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
     <t>33309493</t>
   </si>
   <si>
     <t>DIANA JESUS CURE FLOREZ</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1802</t>
   </si>
   <si>
@@ -78,105 +183,6 @@
   </si>
   <si>
     <t>BELIDA ISABEL VEGA MENCO</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -220,7 +226,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FF09EB-FB36-9344-08DB-B74735A625CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA23DA3-3C44-0AD7-5764-CF72154D6372}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,32 +947,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CD4A0B-A044-49B1-A9F2-8F43E8EC4599}">
-  <dimension ref="B2:J89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6452D3-A63D-4FBD-8451-EC4C25ACC6C3}">
+  <dimension ref="B2:J90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -975,7 +981,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -986,7 +992,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -997,7 +1003,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1008,10 +1014,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1024,8 +1030,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1040,15 +1046,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2110350</v>
+        <v>2141599</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1056,17 +1062,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
         <v>34</v>
@@ -1076,7 +1082,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1096,16 +1102,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1122,13 +1128,13 @@
         <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1530000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1139,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1151,7 +1157,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1174,18 +1180,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1197,7 +1203,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1220,18 +1226,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1243,18 +1249,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1266,7 +1272,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1289,7 +1295,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1312,18 +1318,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1335,18 +1341,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1358,7 +1364,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1381,7 +1387,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1404,18 +1410,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1427,18 +1433,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1450,7 +1456,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1473,7 +1479,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1496,18 +1502,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1519,7 +1525,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1542,18 +1548,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1565,18 +1571,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1588,7 +1594,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1611,7 +1617,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1634,18 +1640,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1657,7 +1663,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1680,18 +1686,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1703,7 +1709,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1726,18 +1732,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1749,18 +1755,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1772,7 +1778,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1795,18 +1801,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1818,7 +1824,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1841,18 +1847,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1864,7 +1870,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1887,18 +1893,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1910,21 +1916,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1933,18 +1939,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1956,18 +1962,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1979,18 +1985,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2002,18 +2008,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2025,18 +2031,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2048,18 +2054,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2071,18 +2077,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2094,18 +2100,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2117,18 +2123,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2140,18 +2146,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2163,18 +2169,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2186,18 +2192,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2209,18 +2215,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2232,18 +2238,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2255,18 +2261,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2278,18 +2284,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2301,18 +2307,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2324,18 +2330,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2347,18 +2353,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2370,18 +2376,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2393,18 +2399,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2416,18 +2422,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2439,18 +2445,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2462,18 +2468,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2485,18 +2491,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2508,18 +2514,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2531,18 +2537,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2554,18 +2560,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2577,18 +2583,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2600,18 +2606,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2623,21 +2629,21 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2646,57 +2652,80 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="22" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="24">
-        <v>23958</v>
-      </c>
-      <c r="G83" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="26"/>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="H88" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="F84" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G84" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C89" s="32"/>
       <c r="H89" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="H90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H88:J88"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011037901.xlsx
+++ b/Data/EC/NIT-9011037901.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB6A0EC-B743-4383-BEA2-5C82D2713846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D726AF3-A661-4577-A6A2-EA47BE78F3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7741440B-82D9-4AC7-A9E0-2BCC382C3036}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEF37B51-D4C2-4767-8574-BCE18B9F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="58">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,124 +65,118 @@
     <t>CC</t>
   </si>
   <si>
-    <t>33354163</t>
-  </si>
-  <si>
-    <t>YURIS MARIA LOZANO RODELO</t>
+    <t>33309493</t>
+  </si>
+  <si>
+    <t>DIANA JESUS CURE FLOREZ</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>33201477</t>
+  </si>
+  <si>
+    <t>BELIDA ISABEL VEGA MENCO</t>
   </si>
   <si>
     <t>1803</t>
   </si>
   <si>
-    <t>33309493</t>
-  </si>
-  <si>
-    <t>DIANA JESUS CURE FLOREZ</t>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
   <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>33201477</t>
-  </si>
-  <si>
-    <t>BELIDA ISABEL VEGA MENCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -226,7 +220,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -294,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -496,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA23DA3-3C44-0AD7-5764-CF72154D6372}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EB709C-7714-94AD-8A3F-E2E944171A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,32 +941,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6452D3-A63D-4FBD-8451-EC4C25ACC6C3}">
-  <dimension ref="B2:J90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3E1127-B668-4A92-8E04-765A525081F0}">
+  <dimension ref="B2:J89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -981,7 +975,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -992,7 +986,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1003,7 +997,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1014,10 +1008,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1030,8 +1024,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1046,15 +1040,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2141599</v>
+        <v>2110350</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1062,17 +1056,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5">
         <v>34</v>
@@ -1082,7 +1076,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,16 +1096,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1128,13 +1122,13 @@
         <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>1530000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1145,10 +1139,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1157,18 +1151,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1180,7 +1174,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1185,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1203,18 +1197,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1226,7 +1220,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1249,18 +1243,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1272,7 +1266,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1295,18 +1289,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1318,7 +1312,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1323,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1341,18 +1335,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1364,7 +1358,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1369,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1387,18 +1381,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1410,7 +1404,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1433,18 +1427,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1456,7 +1450,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1467,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1479,18 +1473,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1502,7 +1496,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1525,18 +1519,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1548,7 +1542,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1571,18 +1565,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1594,7 +1588,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1617,18 +1611,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1640,7 +1634,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1663,18 +1657,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1686,7 +1680,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1709,18 +1703,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1732,7 +1726,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1755,18 +1749,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1778,7 +1772,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1801,18 +1795,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1824,7 +1818,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1847,18 +1841,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1870,7 +1864,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1875,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1893,18 +1887,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1916,21 +1910,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1939,18 +1933,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1962,18 +1956,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1985,18 +1979,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2008,18 +2002,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2031,18 +2025,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2054,18 +2048,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2077,18 +2071,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2100,18 +2094,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2123,18 +2117,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2146,18 +2140,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2169,18 +2163,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2192,18 +2186,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2215,18 +2209,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2238,18 +2232,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2261,18 +2255,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2284,18 +2278,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2307,18 +2301,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2330,18 +2324,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2353,18 +2347,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2376,18 +2370,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2399,18 +2393,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2422,18 +2416,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2445,18 +2439,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2468,18 +2462,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2491,18 +2485,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2514,18 +2508,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2537,18 +2531,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2560,18 +2554,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2583,18 +2577,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2606,18 +2600,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2629,21 +2623,21 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2652,80 +2646,57 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84" s="22" t="s">
+    <row r="83" spans="2:10">
+      <c r="B83" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F83" s="24">
+        <v>23958</v>
+      </c>
+      <c r="G83" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="26"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="H88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10">
       <c r="B89" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C89" s="32"/>
       <c r="H89" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H88:J88"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
